--- a/temp/temp.xlsx
+++ b/temp/temp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janderson\AppData\Local\Clemar - Survey\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_dev\Survey\2.0\Electron\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF23DBFE-C127-42A5-866E-CA39C3AA11D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E240590F-6A04-4226-A52F-FA95BB6A4AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3060" yWindow="1065" windowWidth="23535" windowHeight="13440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>E-mail</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>Técnico</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>asd</t>
   </si>
 </sst>
 </file>
@@ -408,28 +414,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -439,17 +445,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1852,14 +1858,17 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <customProperties>
+    <customPr name="SheetId" r:id="rId2"/>
+  </customProperties>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId4" name="Drop Down 2">
+            <control shapeId="1026" r:id="rId5" name="Drop Down 2">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1881,7 +1890,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1028" r:id="rId5" name="Option Button 4">
+            <control shapeId="1028" r:id="rId6" name="Option Button 4">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1903,7 +1912,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId6" name="Option Button 6">
+            <control shapeId="1030" r:id="rId7" name="Option Button 6">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1925,7 +1934,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId7" name="Check Box 7">
+            <control shapeId="1031" r:id="rId8" name="Check Box 7">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1947,7 +1956,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1032" r:id="rId8" name="Check Box 8">
+            <control shapeId="1032" r:id="rId9" name="Check Box 8">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1969,7 +1978,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1033" r:id="rId9" name="Check Box 9">
+            <control shapeId="1033" r:id="rId10" name="Check Box 9">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1991,7 +2000,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1034" r:id="rId10" name="Check Box 10">
+            <control shapeId="1034" r:id="rId11" name="Check Box 10">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2019,10 +2028,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81BEFE2-10F8-4631-B9C6-8202EDEAD03E}">
-  <dimension ref="B2:I38"/>
+  <dimension ref="B2:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2031,12 +2040,12 @@
     <col min="8" max="8" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
         <v>24</v>
       </c>
@@ -2044,7 +2053,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q8" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="19" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
@@ -2074,7 +2093,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <customProperties>
+    <customPr name="SheetId" r:id="rId1"/>
+  </customProperties>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2118,5 +2140,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <customProperties>
+    <customPr name="SheetId" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
--- a/temp/temp.xlsx
+++ b/temp/temp.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_dev\Survey\2.0\Electron\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E240590F-6A04-4226-A52F-FA95BB6A4AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47218668-D1F5-4548-95E7-FCAC65C634C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="1065" windowWidth="23535" windowHeight="13440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3060" yWindow="1065" windowWidth="23535" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
     <sheet name="Relatório Fotográfico" sheetId="3" r:id="rId2"/>
-    <sheet name="_dados" sheetId="2" r:id="rId3"/>
+    <sheet name="Planilha1" sheetId="4" r:id="rId3"/>
+    <sheet name="Planilha2" sheetId="5" r:id="rId4"/>
+    <sheet name="_dados" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>E-mail</t>
   </si>
@@ -154,12 +156,6 @@
   </si>
   <si>
     <t>Técnico</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>asd</t>
   </si>
 </sst>
 </file>
@@ -1674,7 +1670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2028,10 +2024,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81BEFE2-10F8-4631-B9C6-8202EDEAD03E}">
-  <dimension ref="B2:Q38"/>
+  <dimension ref="B2:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2040,12 +2036,12 @@
     <col min="8" max="8" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
         <v>24</v>
       </c>
@@ -2053,17 +2049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q8" t="s">
-        <v>42</v>
-      </c>
-    </row>
+    <row r="5" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
@@ -2101,6 +2087,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA7E368-8C67-4470-9A53-C4F72D86EB53}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <customProperties>
+    <customPr name="SheetId" r:id="rId1"/>
+  </customProperties>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CE0D7E-4569-4515-BD53-00E6770ABD7E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <customProperties>
+    <customPr name="SheetId" r:id="rId1"/>
+  </customProperties>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53F81FB-7DEF-40A4-B9B2-22CA604009ED}">
   <dimension ref="A1:A5"/>
   <sheetViews>

--- a/temp/temp.xlsx
+++ b/temp/temp.xlsx
@@ -5,19 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_dev\Survey\2.0\Electron\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_dev\Survey\2.0\Electron\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47218668-D1F5-4548-95E7-FCAC65C634C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C42359-4B2E-4AD3-A3F1-090AC3D622CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="1065" windowWidth="23535" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3435" yWindow="915" windowWidth="23535" windowHeight="13440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
     <sheet name="Relatório Fotográfico" sheetId="3" r:id="rId2"/>
-    <sheet name="Planilha1" sheetId="4" r:id="rId3"/>
-    <sheet name="Planilha2" sheetId="5" r:id="rId4"/>
-    <sheet name="_dados" sheetId="2" r:id="rId5"/>
+    <sheet name="_dados" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>E-mail</t>
   </si>
@@ -156,6 +154,12 @@
   </si>
   <si>
     <t>Técnico</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>asd</t>
   </si>
 </sst>
 </file>
@@ -1670,7 +1674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2024,10 +2028,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81BEFE2-10F8-4631-B9C6-8202EDEAD03E}">
-  <dimension ref="B2:I38"/>
+  <dimension ref="B2:Q38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2036,12 +2040,12 @@
     <col min="8" max="8" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
         <v>24</v>
       </c>
@@ -2049,7 +2053,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q8" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="19" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
@@ -2087,38 +2101,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA7E368-8C67-4470-9A53-C4F72D86EB53}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <customProperties>
-    <customPr name="SheetId" r:id="rId1"/>
-  </customProperties>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CE0D7E-4569-4515-BD53-00E6770ABD7E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <customProperties>
-    <customPr name="SheetId" r:id="rId1"/>
-  </customProperties>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53F81FB-7DEF-40A4-B9B2-22CA604009ED}">
   <dimension ref="A1:A5"/>
   <sheetViews>

--- a/temp/temp.xlsx
+++ b/temp/temp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_dev\Survey\2.0\Electron\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_dev\Survey\2.0\Electron\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C42359-4B2E-4AD3-A3F1-090AC3D622CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A59293-52CD-42AA-BBB7-C77714020540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="915" windowWidth="23535" windowHeight="13440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>

--- a/temp/temp.xlsx
+++ b/temp/temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_dev\Survey\2.0\Electron\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A59293-52CD-42AA-BBB7-C77714020540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE9CC9A-2ECE-4277-982D-DF6954587E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="945" windowWidth="23535" windowHeight="13440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
